--- a/eas-command-and-control-service/resources/consumer_data.xlsx
+++ b/eas-command-and-control-service/resources/consumer_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\git\service-optimizer\eas-command-and-control-service\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5212F45-84B6-4E51-868E-85BA428CD123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052D7C0F-9EFA-4A59-8A8E-3B5BFBC7D66F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="3036" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>001</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>reactive_e</t>
+  </si>
+  <si>
+    <t>nlc_id</t>
   </si>
 </sst>
 </file>
@@ -364,99 +367,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.12</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.11</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.03</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.01</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.02</v>
       </c>
     </row>
